--- a/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
@@ -1194,10 +1194,18 @@
       <c r="H20" t="n">
         <v>4.415314069341718</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2795786925009982</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1478228527254646</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2116964785658925</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.08009459663473</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.38438514083712</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.4421614382907215</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2324881689575329</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1758749011479283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.716096556723631</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
@@ -510,19 +510,19 @@
         <v>0.08493150684931507</v>
       </c>
       <c r="D2" t="n">
-        <v>118325.6773647064</v>
+        <v>118275.4751848024</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01838539932572538</v>
+        <v>-0.02091100561556052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1643142687236085</v>
+        <v>0.174796251227516</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.164314665319871</v>
+        <v>-1.649719457582301</v>
       </c>
       <c r="H2" t="n">
-        <v>11.38438514083712</v>
+        <v>16.10310679048877</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4421614382907215</v>
@@ -552,19 +552,19 @@
         <v>0.1616438356164384</v>
       </c>
       <c r="D3" t="n">
-        <v>119025.3404043482</v>
+        <v>119030.1851993516</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02120367798845584</v>
+        <v>-0.02076647844682017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2095177921679985</v>
+        <v>0.2050012169011446</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.855700640829935</v>
+        <v>-1.425902590746017</v>
       </c>
       <c r="H3" t="n">
-        <v>26.70106175321259</v>
+        <v>16.98311454636362</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3342465753424658</v>
       </c>
       <c r="D5" t="n">
-        <v>120751.0570628843</v>
+        <v>120689.4060706475</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02497381625886662</v>
+        <v>-0.02794997294275259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2198964314571295</v>
+        <v>0.2332690681446356</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.432490742091072</v>
+        <v>-0.8338939102106074</v>
       </c>
       <c r="H5" t="n">
-        <v>5.935065198001154</v>
+        <v>8.696484875731587</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.410958904109589</v>
       </c>
       <c r="D6" t="n">
-        <v>121192.8149408173</v>
+        <v>121191.8979872002</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03700443600652428</v>
+        <v>-0.03674033151067763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2600162671134961</v>
+        <v>0.2572086377334402</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.263492458987359</v>
+        <v>-1.132427611423583</v>
       </c>
       <c r="H6" t="n">
-        <v>11.49861931633709</v>
+        <v>9.867556848219831</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8328767123287671</v>
       </c>
       <c r="D8" t="n">
-        <v>122863.3439735733</v>
+        <v>122862.0821874668</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05140048488516188</v>
+        <v>-0.05060856669362174</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2256045023954316</v>
+        <v>0.2199553743286014</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.129147111393118</v>
+        <v>-0.9051817561684483</v>
       </c>
       <c r="H8" t="n">
-        <v>9.173034790803309</v>
+        <v>7.08722495857673</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.9095890410958904</v>
       </c>
       <c r="D9" t="n">
-        <v>124421.5619142857</v>
+        <v>124423.6567373964</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1003173599309407</v>
+        <v>-0.09932857608253293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4597022296152442</v>
+        <v>0.4512049289244738</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.628510381254246</v>
+        <v>-2.521182240538921</v>
       </c>
       <c r="H9" t="n">
-        <v>15.45148647173586</v>
+        <v>14.36116839186669</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.158904109589041</v>
       </c>
       <c r="D10" t="n">
-        <v>125747.0892253339</v>
+        <v>125742.0904017959</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1175082508746114</v>
+        <v>-0.1191110171165711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4306741817873931</v>
+        <v>0.4420726491789731</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.796427025057118</v>
+        <v>-1.932609514947561</v>
       </c>
       <c r="H10" t="n">
-        <v>8.75017148475416</v>
+        <v>9.879244624286544</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.405479452054795</v>
       </c>
       <c r="D11" t="n">
-        <v>127852.0502801582</v>
+        <v>127827.2940780794</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1844416420811568</v>
+        <v>-0.1966893939678039</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6892202011101658</v>
+        <v>0.7832383037921936</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.235553234301723</v>
+        <v>-2.650179520439601</v>
       </c>
       <c r="H11" t="n">
-        <v>9.61802590380411</v>
+        <v>13.05285757099681</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D13" t="n">
-        <v>118289.6727747915</v>
+        <v>118324.6456458961</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.004137513803482957</v>
+        <v>-0.0007790735472777527</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1700185227145966</v>
+        <v>0.1478625512276133</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.309011011937481</v>
+        <v>-0.8083085152215409</v>
       </c>
       <c r="H13" t="n">
-        <v>28.53563969008439</v>
+        <v>11.02642042127016</v>
       </c>
       <c r="I13" t="n">
         <v>-0.4739252301569074</v>
@@ -1104,19 +1104,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D18" t="n">
-        <v>118291.8899731158</v>
+        <v>118309.8368363478</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.005244977669446727</v>
+        <v>-0.003974876193995315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1447914419383177</v>
+        <v>0.1395575970205</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.239643579057533</v>
+        <v>-0.9025127284164005</v>
       </c>
       <c r="H18" t="n">
-        <v>13.64266609856945</v>
+        <v>10.0909505284078</v>
       </c>
       <c r="I18" t="n">
         <v>-0.4469319268552789</v>
@@ -1146,19 +1146,19 @@
         <v>0.04657534246575343</v>
       </c>
       <c r="D19" t="n">
-        <v>118314.4395189911</v>
+        <v>118343.5400836522</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.009458830196974627</v>
+        <v>-0.007684672861838372</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1453415086472126</v>
+        <v>0.1379176838482369</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.160351727263679</v>
+        <v>-0.7507533802123543</v>
       </c>
       <c r="H19" t="n">
-        <v>12.3827962441857</v>
+        <v>9.001744558415018</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2069205264728765</v>
@@ -1188,19 +1188,19 @@
         <v>0.06575342465753424</v>
       </c>
       <c r="D20" t="n">
-        <v>118498.5063408428</v>
+        <v>118414.1613449437</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008407969596467642</v>
+        <v>-0.01246987575532709</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1443669903635402</v>
+        <v>0.1564218073129512</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009145705552344551</v>
+        <v>-0.4390436630479489</v>
       </c>
       <c r="H20" t="n">
-        <v>4.415314069341718</v>
+        <v>6.469809024023105</v>
       </c>
       <c r="I20" t="n">
         <v>-0.2795786925009982</v>

--- a/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>16.98311454636362</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.6407391182286037</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2559601416499164</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.03922670970420494</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.52951366502226</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDQMOMENT_20250729.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>13.02946973096475</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6640704137585214</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.457913895639154</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3625523166945925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.7515562354048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
